--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMS\Class 4\Model_MSc_SELECT\Model_MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA420AA-EA82-4E05-9B92-A9FE15694D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B6D8A-8354-4533-A7E6-4651517868FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -794,6 +794,24 @@
   </si>
   <si>
     <t>ELC_FIN</t>
+  </si>
+  <si>
+    <t>ELC_GRID_RES</t>
+  </si>
+  <si>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELC_FIN_DEM</t>
+  </si>
+  <si>
+    <t>DMD</t>
   </si>
 </sst>
 </file>
@@ -6430,7 +6448,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6535,8 +6553,12 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="D7" s="35" t="s">
         <v>62</v>
       </c>
@@ -6552,8 +6574,12 @@
       <c r="J7" s="34"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="D8" s="35" t="s">
         <v>61</v>
       </c>
@@ -6568,8 +6594,12 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
@@ -6606,8 +6636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6718,11 +6748,15 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B7" s="14"/>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
       <c r="C7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="16" t="s">
         <v>39</v>
       </c>
@@ -6748,8 +6782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6823,7 +6857,10 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="str">
+        <f>SEC_Processes!D7</f>
+        <v>ELC_FIN_DEM</v>
+      </c>
       <c r="C7" s="13" t="str">
         <f>SEC_Processes!E7</f>
         <v>Electricity - Final Energy Demand</v>
@@ -6836,13 +6873,21 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="D8" s="38"/>
+      <c r="D8" s="38" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>ELC_GRID_RES</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="D9" s="38"/>
+      <c r="D9" s="38" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_GRID</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="E10" s="38"/>
+      <c r="E10" s="38" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="2:7">
       <c r="D16" s="18"/>
@@ -6857,7 +6902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7056,21 +7101,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7214,31 +7244,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7254,4 +7275,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxco\Desktop\Masters\UPC\SEM 2\Energy Policy\GAMS\Class 4\Model_MSc_SELECT\Model_MSc_SELECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B6D8A-8354-4533-A7E6-4651517868FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F1178A-72C7-41A1-833F-E6C8B702361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -655,12 +655,27 @@
     <t>Electricity Indicator (for CHPs)</t>
   </si>
   <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity</t>
+  </si>
+  <si>
     <t>PJ</t>
   </si>
   <si>
     <t>DAYNITE</t>
   </si>
   <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
     <t>Electricity - Final Energy</t>
   </si>
   <si>
@@ -721,12 +736,18 @@
     <t>Vintage Tracking</t>
   </si>
   <si>
+    <t>DMD</t>
+  </si>
+  <si>
     <t>Electricity - Final Energy Demand</t>
   </si>
   <si>
     <t>PJa</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Final Energy Consumption Technologies</t>
   </si>
   <si>
@@ -781,37 +802,16 @@
     <t>Visualisation Platform | ENTSOs TYNDP 2024 Scenarios</t>
   </si>
   <si>
+    <t>ELC_GRID_RES</t>
+  </si>
+  <si>
+    <t>ELC_FIN_DEM</t>
+  </si>
+  <si>
+    <t>ELC_FIN</t>
+  </si>
+  <si>
     <t>NL</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity grid non-RES </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity grid RES </t>
-  </si>
-  <si>
-    <t>ELC_FIN</t>
-  </si>
-  <si>
-    <t>ELC_GRID_RES</t>
-  </si>
-  <si>
-    <t>ELC_GRID</t>
-  </si>
-  <si>
-    <t>NRG</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>ELC_FIN_DEM</t>
-  </si>
-  <si>
-    <t>DMD</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1832,13 +1832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3615,7 +3609,7 @@
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3668,6 +3662,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="1244"/>
+    <xf numFmtId="2" fontId="99" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="184" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3675,13 +3670,9 @@
     <xf numFmtId="184" fontId="43" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4964,932 +4955,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Forecast</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>DEMAND!$C$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>DEMAND!$C$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>109.39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>122.81073059360824</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>193.89840182648368</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>264.98607305936093</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300.52990867580047</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-633D-4D5F-AA43-F82B5531D4F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1579598447"/>
-        <c:axId val="1579601327"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1579598447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1579601327"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1579601327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1579598447"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19707</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19853</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>602413</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112159</xdr:rowOff>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5912,50 +4991,14 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19707" y="2654008"/>
-          <a:ext cx="6540758" cy="3764358"/>
+          <a:off x="0" y="2643188"/>
+          <a:ext cx="6538632" cy="3763005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>262758</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>518948</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>113643</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D08EC66-A235-E2F7-A46F-106D87A9EB31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6445,28 +5488,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" customWidth="1"/>
-    <col min="11" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.25">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -6478,7 +5521,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:10" ht="12.75" customHeight="1">
+    <row r="3" spans="2:9" ht="12.75" customHeight="1">
       <c r="B3" s="11"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6488,7 +5531,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:10" ht="17.649999999999999" customHeight="1">
+    <row r="4" spans="2:9" ht="17.649999999999999" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -6500,7 +5543,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -6526,7 +5569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="47.25" customHeight="1">
+    <row r="6" spans="2:9" ht="47.25" customHeight="1">
       <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
@@ -6552,77 +5595,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="34" t="s">
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="D7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="14"/>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="16"/>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="22" ht="13.9" customHeight="1"/>
+    <row r="21" ht="13.9" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6636,25 +5660,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" customWidth="1"/>
-    <col min="5" max="5" width="45.73046875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.265625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
       <c r="B2" s="23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -6665,7 +5689,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="2:10" ht="13.15">
+    <row r="3" spans="2:10">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -6678,7 +5702,7 @@
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1">
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
@@ -6691,86 +5715,88 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="38.25">
       <c r="B6" s="26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B7" t="s">
+      <c r="B7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>68</v>
+      <c r="D7" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6782,78 +5808,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" customWidth="1"/>
-    <col min="2" max="2" width="31.265625" customWidth="1"/>
-    <col min="3" max="3" width="47.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.73046875" customWidth="1"/>
-    <col min="6" max="6" width="17.265625" customWidth="1"/>
-    <col min="7" max="7" width="16.265625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.25">
+    <row r="2" spans="2:7" ht="18">
       <c r="B2" s="22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2" s="9"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:7" ht="13.15">
+    <row r="3" spans="2:7">
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1">
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="31.9" customHeight="1">
       <c r="B6" s="26" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
@@ -6873,20 +5899,20 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="D8" s="38" t="str">
+      <c r="D8" s="13" t="str">
         <f>SEC_Comm!C7</f>
-        <v>ELC_GRID_RES</v>
+        <v>ELC_GRID</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="D9" s="38" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELC_GRID</v>
+      <c r="D9" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="E10" s="38" t="s">
-        <v>63</v>
+      <c r="E10" s="13" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_FIN</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -6902,38 +5928,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="9.265625" customWidth="1"/>
-    <col min="15" max="15" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="13.15">
-      <c r="C1" s="33"/>
+    <row r="1" spans="2:13">
+      <c r="C1" s="34"/>
     </row>
-    <row r="3" spans="2:13" ht="17.25">
+    <row r="3" spans="2:13" ht="18">
       <c r="B3" s="22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="5" spans="2:13" ht="13.15">
+    <row r="5" spans="2:13">
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="2:13" ht="13.15">
+    <row r="6" spans="2:13">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -6961,48 +5987,56 @@
     </row>
     <row r="7" spans="2:13" ht="36.75" customHeight="1">
       <c r="B7" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="15">
-        <v>393.80399999999997</v>
-      </c>
-      <c r="D8" s="15">
-        <v>442.11900000000003</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="B8" s="15" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="C8" s="33">
+        <f>125*3.6</f>
+        <v>450</v>
+      </c>
+      <c r="D8" s="33">
+        <f>135*3.6</f>
+        <v>486</v>
+      </c>
+      <c r="E8" s="33">
+        <f>157*3.6</f>
         <v>565.20000000000005</v>
       </c>
-      <c r="F8" s="15">
-        <v>698.03425000000004</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="F8" s="33">
+        <f>180*3.6</f>
+        <v>648</v>
+      </c>
+      <c r="G8" s="33">
+        <f>230*3.6</f>
         <v>828</v>
       </c>
-      <c r="H8" s="15">
-        <v>935.94996000000003</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1081.9100000000001</v>
+      <c r="H8" s="33">
+        <f>260*3.6</f>
+        <v>936</v>
+      </c>
+      <c r="I8" s="33">
+        <f>300*3.6</f>
+        <v>1080</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1">
@@ -7016,60 +6050,23 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
+      <c r="D10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" customHeight="1">
-      <c r="C11" s="31">
-        <v>2023</v>
-      </c>
-      <c r="D11" s="31">
-        <v>2025</v>
-      </c>
-      <c r="E11" s="31">
-        <v>2030</v>
-      </c>
-      <c r="F11" s="31">
-        <v>2035</v>
-      </c>
-      <c r="G11" s="31">
-        <v>2040</v>
-      </c>
-      <c r="H11" s="31">
-        <v>2045</v>
-      </c>
-      <c r="I11" s="31">
-        <v>2050</v>
+    <row r="11" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="12" spans="2:13">
+      <c r="B12" s="37">
+        <f>C8/3.6</f>
+        <v>125</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="I12">
+        <f>I8/3.6</f>
+        <v>300</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="37">
-        <v>109.39</v>
-      </c>
-      <c r="D12" s="36">
-        <f>_xlfn.FORECAST.LINEAR(2025,{109.39;157;230}, {2023;2030;2040})</f>
-        <v>122.81073059360824</v>
-      </c>
-      <c r="E12" s="37">
-        <v>157</v>
-      </c>
-      <c r="F12" s="36">
-        <f>_xlfn.FORECAST.LINEAR(2035,{109.39;157;230}, {2023;2030;2040})</f>
-        <v>193.89840182648368</v>
-      </c>
-      <c r="G12" s="37">
-        <v>230</v>
-      </c>
-      <c r="H12" s="36">
-        <f>_xlfn.FORECAST.LINEAR(2045,{109.39;157;230}, {2023;2030;2040})</f>
-        <v>264.98607305936093</v>
-      </c>
-      <c r="I12" s="36">
-        <f>_xlfn.FORECAST.LINEAR(2050,{109.39;157;230}, {2023;2030;2040})</f>
-        <v>300.52990867580047</v>
-      </c>
+    <row r="13" spans="2:13">
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="2:13">
       <c r="C14" s="28"/>
@@ -7087,7 +6084,8 @@
     <row r="20" spans="3:12" ht="25.5" customHeight="1"/>
     <row r="26" spans="3:12" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="C7:I7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -7245,18 +6243,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7278,14 +6276,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7299,4 +6289,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>